--- a/data/raw/thirdpostbatch5.xlsx
+++ b/data/raw/thirdpostbatch5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t>postCategory</t>
   </si>
@@ -77,7 +77,7 @@
     <t>6263378558</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt;&lt;b&gt;Tired? Stressed? Simply need to relax? &lt;/b&gt;&lt;/i&gt;    🌱 Our goal is to provide you a relaxing environment that enables you to unwind and rid yourself any tension, anxiety, and stress    🌱 Each highly trained therapist strives to provide you with a relaxed, comfortable environment that fosters relaxation    🌱 Quiet, Clean, Private rooms to help you fully relax    🌱 Open 7 Days for your convenience from 9am-9pm    🌱 Same-Day Appointments/Walk-Ins Welcome        ▫️ &lt;b&gt;GREEN SPA&lt;/b&gt; ▫️  (626) 337-8558 • Location: 13020 Francisquito Ave, Baldwin Park, CA 91706 &lt;u&gt;&lt;/u&gt; </t>
+    <t xml:space="preserve">   Tired? Stressed? Simply need to relax?       🌱 Our goal is to provide you a relaxing environment that enables you to unwind and rid yourself any tension, anxiety, and stress    🌱 Each highly trained therapist strives to provide you with a relaxed, comfortable environment that fosters relaxation    🌱 Quiet, Clean, Private rooms to help you fully relax    🌱 Open 7 Days for your convenience from 9am-9pm    🌱 Same-Day Appointments/Walk-Ins Welcome        ▫️  GREEN SPA  ▫️  (626) 337-8558 • Location: 13020 Francisquito Ave, Baldwin Park, CA 91706    </t>
   </si>
   <si>
     <t>1103</t>
@@ -137,7 +137,7 @@
     <t>1527894 1184783 1182964 1367148 2453655 4091431</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="30" src="http://dl4.glitter-graphics.net/pub/1527/1527894gvxcsdbcpz.gif" width="530"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/a.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="10"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="10"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/a.gif"/&gt;&lt;/a&gt; &lt;font color="red" face="Monotype Corsiva" size="6"&gt; The Ultimate Satisfaction &amp;amp; Relaxation &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="275" src="http://dl5.glitter-graphics.net/pub/29/29235zq05sd8oor.gif" width="197"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-works.org" target="_blank"&gt;glitter-graphics.com&lt;/a&gt; &lt;font color="green" face="Palatino Linotype"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;a href="https://maps.google.com/maps?q=1843+Lincoln+Blvd,+Santa+Monica,+CA+90404&amp;amp;hl=ko&amp;amp;ll=34.014801,-118.478322&amp;amp;spn=0.010138,0.023711&amp;amp;sll=33.790757,-118.29649&amp;amp;sspn=0.010165,0.023711&amp;amp;hnear=1843+Lincoln+Blvd,+Santa+Monica,+California+90404&amp;amp;t=m&amp;amp;z=16" target="_blank"&gt;&lt;b&gt;1843 Lincoln Blvd, Santa Monica, CA 90404&lt;/b&gt;&lt;/a&gt; &lt;font color="purple" size="4"&gt;[ West LA - Santa Monica ] &lt;font color="blue" size="5"&gt;10 Fwy Exit Linclon Bl [S] 0.2 mi &lt;font color="red" size="6"&gt;829; 310 - 664 - 9300 &lt;font color="olive" size="4"&gt;Open 7 Days : 10:00AM - 10:00PM &lt;font color="red"&gt;* Easy Inside Parking &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;div style="visibility:visible;width:460px;margin:auto;"&gt; &lt;/div&gt; &lt;img alt="Image Hosting by PictureTrail.com" border="0" src="http://pic20.picturetrail.com/VOL1383/13671483/24536552/409143102.jpg"/&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="30" src="http://dl4.glitter-graphics.net/pub/1527/1527894gvxcsdbcpz.gif" width="530"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/a.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="10"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="10"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/floral/a.gif"/&gt;&lt;/a&gt; &lt;font color="red" face="Monotype Corsiva" size="6"&gt; The Ultimate Satisfaction &amp;amp; Relaxation &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="275" src="http://dl5.glitter-graphics.net/pub/29/29235zq05sd8oor.gif" width="197"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-works.org" target="_blank"&gt;glitter-graphics.com&lt;/a&gt; &lt;font color="green" face="Palatino Linotype"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt; &lt;a href="https://maps.google.com/maps?q=1843+Lincoln+Blvd,+Santa+Monica,+CA+90404&amp;amp;hl=ko&amp;amp;ll=34.014801,-118.478322&amp;amp;spn=0.010138,0.023711&amp;amp;sll=33.790757,-118.29649&amp;amp;sspn=0.010165,0.023711&amp;amp;hnear=1843+Lincoln+Blvd,+Santa+Monica,+California+90404&amp;amp;t=m&amp;amp;z=16" target="_blank"&gt; 1843 Lincoln Blvd, Santa Monica, CA 90404 &lt;/a&gt; &lt;font color="purple" size="4"&gt;[ West LA - Santa Monica ] &lt;font color="blue" size="5"&gt;10 Fwy Exit Linclon Bl [S] 0.2 mi &lt;font color="red" size="6"&gt;829; 310 - 664 - 9300 &lt;font color="olive" size="4"&gt;Open 7 Days : 10:00AM - 10:00PM &lt;font color="red"&gt;* Easy Inside Parking &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;div style="visibility:visible;width:460px;margin:auto;"&gt; &lt;/div&gt; &lt;img alt="Image Hosting by PictureTrail.com" border="0" src="http://pic20.picturetrail.com/VOL1383/13671483/24536552/409143102.jpg"/&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>— 🍎🍎🍎🍎🍎🍎 —— ௸௸௸🍎🍎🍎🍎— ►►A-1 SPA ◄◄ —— NO 1 ——☆☆☆☆☆ — 310-664-9300 —</t>
@@ -164,7 +164,7 @@
     <t>Downtown, Los Angeles, Montebello Monterey Park Commerce</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;p&gt;&lt;b&gt;═══════════════════════════ &lt;a&gt;🎀 HOT SEXY BEST LINEUP ! 🎀&lt;/a&gt;&lt;p&gt;🔴⚫ TOP THERAPY 🔴⚫ 🔴⚫&lt;a&gt;TEL : 3 2 3 - 2 6 7 - 4 4 1 6 🔴⚫&lt;/a&gt; ═══════════════════════════ 🍎 PERFECT SATISFACTION 🍎 &lt;a&gt; 🎀 &lt;/a&gt; ▬▬Our&lt;a&gt; Priority&lt;/a&gt; Is Your&lt;a&gt; COMPLETE&lt;/a&gt; RELAXATION 🎀 ▬▬&lt;a&gt; INTERNATIONAL &lt;/a&gt; STAFF &lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;p&gt; ═══════════════════════════ &lt;a&gt;🎀 HOT SEXY BEST LINEUP ! 🎀&lt;/a&gt;&lt;p&gt;🔴⚫ TOP THERAPY 🔴⚫ 🔴⚫&lt;a&gt;TEL : 3 2 3 - 2 6 7 - 4 4 1 6 🔴⚫&lt;/a&gt; ═══════════════════════════ 🍎 PERFECT SATISFACTION 🍎 &lt;a&gt; 🎀 &lt;/a&gt; ▬▬Our&lt;a&gt; Priority&lt;/a&gt; Is Your&lt;a&gt; COMPLETE&lt;/a&gt; RELAXATION 🎀 ▬▬&lt;a&gt; INTERNATIONAL &lt;/a&gt; STAFF &lt;/p&gt; &lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>1104</t>
@@ -173,6 +173,9 @@
     <t>TOP  ▃▃▃▃ ❎❎❎❎❎❎❎❎❎❎❎❎ ▃▃▃▃ 🎇Y🎇O🎇U🎇N🎇G🎇 LATINA &amp; ASIAN GIRLS BEST LINEUP  ▃▃▃▃  ▃▃▃▃ ❎❎❎❎❎❎❎❎❎❎❎</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>92417692</t>
   </si>
   <si>
@@ -185,7 +188,7 @@
     <t>NEW IN TOWN. Available 24hrs. PROSTATE Massage AVAIL. YOU GO TO WORK EVERYDAY AND WORK YOUR AZZ OFF, STILL IT'S NOT ENOUGH. SHE DOESN'T APPRECIATE A MAN LIKE YOU! TIRED? OVERWORKED? STRESSED? WHEN ARE YOU GOING TO FIND TIME 2 PAMPER YOU? I am ALESSANDRA, a 25 year old 5'6" 36C sexy &amp; curvaceous COLOMBIAN/VENEZUELAN girl. My assistant, SOON-LI, a 19 year old 5'2" 118lb. 34D KOREAN girl. COME OVER &amp; let me make your toes curl. 310-849-4388</t>
   </si>
   <si>
-    <t>624</t>
+    <t>232</t>
   </si>
   <si>
     <t>$40 Intoxicating COLOMBIAN &amp; ASIAN Chicks Will Oil You Til Your Toes Curl. 310-849-4388</t>
@@ -218,7 +221,7 @@
     <t>9492015842</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt;&lt;b&gt; &lt;i&gt;&lt;b&gt; █████▌▌▌▌▌▌▌▌MAGIC!🔴🔵🔴🔵🔴🔵 ★THE BLACK JEWEL OF OC!★ ★I DO YOUR RUBDOWN RIGHT!★ ★VANESSA SWEET 949 201 5842★ ★TANTALIZING ADDICTING TOUCH!★ ★MESMERIZING FEMININE ENERGY!★ ★SEXY SURREAL HYPNOTIC VIBRATION★ ★LOVELY SENSUAL TANTRA PROSTATE★ ★AMAZING EDGING TECHNIQUES TOO!★ ★WARM COZY PRIVATE PENTHOUSE★ ★EXOTIC OILS, SHOWER AVAILABLE★ ★ENCHANTING FANTASY ESCAPE!★ ★SENSUAL TANTRA PROSTATE★ ★VANESSA 949 201 5842★ █████▌▌▌▌▌▌▌▌MAGIC!🔴🔵🔴🔵🔴🔵 ★ Kiss your Stress Goodbye! ★ Enticing Full Bodyrub Bliss. ★ Independent Exotic Jewel of Orange County! ★ Magic Touch Originator, Sensual Edging Techniques! ★ Busty, D Cup, Hourglass Fine Curves Galore to Adore! ★Beautiful Diverse mix, Black, Italian, Egyptian and West Indian! ★ Offering Rejuvenating Luxury Rubdown Techniques today or even tonite! ★Come visit me in my Laguna Hills private doll house for a luxurious time out to relieve your stress and tension. Let me add some spice to your life with my exclusive soulful touch flow. Amazing sensual edging techniques to tantalize you too! Specializing in the ultimate in exotic touch pleasures. Come and experience bliss with me...custom love oils, lotions and potions! An uplifting satisfying encounter when only the best treatment will do! Private one and two hour session guarantees you will be hypnotised! Come and see what you've been missing! Available days and evenings too! Sensual, Tantra, Prostate Shower Available ★Vanessa ★ 949*201*5842&lt;/b&gt;&lt;/i&gt; &lt;/b&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">       █████▌▌▌▌▌▌▌▌MAGIC!🔴🔵🔴🔵🔴🔵 ★THE BLACK JEWEL OF OC!★ ★I DO YOUR RUBDOWN RIGHT!★ ★VANESSA SWEET 949 201 5842★ ★TANTALIZING ADDICTING TOUCH!★ ★MESMERIZING FEMININE ENERGY!★ ★SEXY SURREAL HYPNOTIC VIBRATION★ ★LOVELY SENSUAL TANTRA PROSTATE★ ★AMAZING EDGING TECHNIQUES TOO!★ ★WARM COZY PRIVATE PENTHOUSE★ ★EXOTIC OILS, SHOWER AVAILABLE★ ★ENCHANTING FANTASY ESCAPE!★ ★SENSUAL TANTRA PROSTATE★ ★VANESSA 949 201 5842★ █████▌▌▌▌▌▌▌▌MAGIC!🔴🔵🔴🔵🔴🔵 ★ Kiss your Stress Goodbye! ★ Enticing Full Bodyrub Bliss. ★ Independent Exotic Jewel of Orange County! ★ Magic Touch Originator, Sensual Edging Techniques! ★ Busty, D Cup, Hourglass Fine Curves Galore to Adore! ★Beautiful Diverse mix, Black, Italian, Egyptian and West Indian! ★ Offering Rejuvenating Luxury Rubdown Techniques today or even tonite! ★Come visit me in my Laguna Hills private doll house for a luxurious time out to relieve your stress and tension. Let me add some spice to your life with my exclusive soulful touch flow. Amazing sensual edging techniques to tantalize you too! Specializing in the ultimate in exotic touch pleasures. Come and experience bliss with me...custom love oils, lotions and potions! An uplifting satisfying encounter when only the best treatment will do! Private one and two hour session guarantees you will be hypnotised! Come and see what you've been missing! Available days and evenings too! Sensual, Tantra, Prostate Shower Available ★Vanessa ★ 949*201*5842     </t>
   </si>
   <si>
     <t>▌▌▌▌▌▌▌████ BLACK ★ GODDESS ▌▌▌▌▌▌▌█████ BLACK ★★ GODDESS  ▌▌▌▌▌▌▌████ BLACK ★ GODDESS  ▌▌▌▌▌▌▌█████</t>
@@ -233,7 +236,7 @@
     <t>2135597675</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet. &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet.   </t>
   </si>
   <si>
     <t>1129</t>
@@ -362,7 +365,7 @@
     <t>3238830955 0907591 1183541689</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt;  </t>
   </si>
   <si>
     <t>▐ 💟▐ ▃▃▃▃▃▃▃CLICK HERE ▃▃▃▃▃▃▃▃▃▐ 💖▐ HOT BABY DOLLS▐ 💖▐ ▃▃▃▃▃▃▃▃▃▃▃▃ Latina&amp;Asian;&amp;Europeans; ▃▃▃▃▃▃▃▃</t>
@@ -383,7 +386,7 @@
     <t>2134325688 3235226036</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hello , My name is Leena . &lt;/b&gt; . *❤*Rejuvenating &amp; Relaxing*❤*    ★★★★★ Soft music, comfortable atmosphere, stress will just melt away.  Leave you feeling satisfied and completely relaxed.    * Rude text will be blocked   &lt;b&gt;*🌸*Enjoy $60 for one hour release*🌸*&lt;/b&gt;  &lt;b&gt;🙏🏽Appointment (Incall)only Text/call (213) 432-5688. Or Call (323)522-6036&lt;/b&gt; . 📍 Silver Lake area. 10am-8pm</t>
+    <t xml:space="preserve">  Hello , My name is Leena .   . *❤*Rejuvenating &amp; Relaxing*❤*    ★★★★★ Soft music, comfortable atmosphere, stress will just melt away.  Leave you feeling satisfied and completely relaxed.    * Rude text will be blocked    *🌸*Enjoy $60 for one hour release*🌸*    🙏🏽Appointment (Incall)only Text/call (213) 432-5688. Or Call (323)522-6036  . 📍 Silver Lake area. 10am-8pm</t>
   </si>
   <si>
     <t>🔥🔥🔥Hot Sexy Curvy Girl 🔥🔥🔥 Real pic 💯% 💋💄</t>
@@ -395,7 +398,7 @@
     <t>Los Angeles, Pasadena, 🔴🔴🔴🔴🔴🔴🔴🔴🔴 60 + 710 FreeWay 🔴🔴🔴🔴🔴🔴🔴🔴🔴</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt; </t>
   </si>
   <si>
     <t>💚💚💚💚💚💚💚💚💚💚💚 1 MIN FROM 60 + 710 FWY ! 🕋🔴🔴🕋 ► EASTERN TPY 🕋🔴🔴🕋►__NEW GLOBAL STAFF__💚💚💚💚💚💚💚💚💚💚💚💚</t>
@@ -410,7 +413,7 @@
     <t>3104460765 0525251 1184387788 9501785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%25"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★ &lt;b&gt; Best Massage In Town&lt;/b&gt; ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ CALL NOW: 310-446-0765 &lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕 Take Your Mind Away From All The Stress 💕&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt; &lt;/i&gt;&lt;/i&gt;&lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%25"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★   Best Massage In Town  ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣ &lt;/font&gt;  &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ CALL NOW: 310-446-0765  &lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt; 💕 Take Your Mind Away From All The Stress 💕 &lt;/font&gt;  &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt;   &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>🏵 VIP  ❤❤▬ⓢⓟⓔⓒⓘⓐⓛ▬💋▬▬🌈🌈▬👉 Best Service in Town 💋 New Staff</t>
@@ -452,7 +455,7 @@
     <t>[u'147350472']</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello, my name is Margot.    My intention is to provide an experience that vastly exceeds one’s expectations or imaginations. You have the freedom to express your own desires, dreams, and curiosities if there is something you are desiring to try.    I am offering a full body sensual NURU bodywork on the Westside.   I AM NOT AN ESCORT    &lt;u&gt;&lt;b&gt;Screening and references are required&lt;/b&gt;&lt;/u&gt;  $200 for 60 min incall. $100 more for outcall, ask me for locations. I also accept bitcoin  </t>
+    <t xml:space="preserve">Hello, my name is Margot.    My intention is to provide an experience that vastly exceeds one’s expectations or imaginations. You have the freedom to express your own desires, dreams, and curiosities if there is something you are desiring to try.    I am offering a full body sensual NURU bodywork on the Westside.   I AM NOT AN ESCORT      Screening and references are required    $200 for 60 min incall. $100 more for outcall, ask me for locations. I also accept bitcoin  </t>
   </si>
   <si>
     <t>👸🏼------------ 😍👸🏼😍👸🏼😍👸🏼😍👸🏼Sexy, Sultry, Curvy Busty Blonde For AUTHENTIC NURU👸🏼😍👸🏼😍👸🏼😍👸🏼😍 ------------👸🏼</t>
@@ -464,7 +467,7 @@
     <t>Downtown, Los Angeles, 🔴Downey 🔴 Whittier 🔴 Norwalk'</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;img src=""/&gt;&lt;p&gt;&lt;b&gt;🕋🌷🕋 ___ &lt;a&gt; W H C&lt;/a&gt; SPA ___ 🕋🌷🕋 🏾 GREAT TIME GUARANTEED...🏾&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;img src=""/&gt;&lt;p&gt; 🕋🌷🕋 ___ &lt;a&gt; W H C&lt;/a&gt; SPA ___ 🕋🌷🕋 🏾 GREAT TIME GUARANTEED...🏾 &lt;/p&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>▋▋🎾🔴🎾⬛️⬛️⬛️🎾🔴🎾▋▋▃ WHC ▃ 562-692-9600 ▃ ▋▋🔴🔴 ❎❎❎❎❎ 🔴🔴 ▋▃ SEXY YOUNG LATINA &amp; ASIAN  GIRLS ▃▋▋🎾🔴🎾⬛️⬛️⬛️🎾🔴🎾▋▋</t>
@@ -479,7 +482,7 @@
     <t>1372023 2466502 4135099 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>1101</t>
@@ -512,7 +515,7 @@
     <t>3102169294</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;&lt;b&gt; &lt;b&gt;&lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt; &lt;u&gt;🚺——— Dream Inducing Bodywork ———🚺&lt;/u&gt; &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺 &lt;b&gt;&lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm &lt;u&gt;🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/ol&gt;&lt;/big&gt;</t>
+    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;   &lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt;  🚺——— Dream Inducing Bodywork ———🚺  &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺  &lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm  🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;    &lt;/ol&gt;&lt;/big&gt;</t>
   </si>
   <si>
     <t>🔴⬛⬛🔴▬▬▬SUPER SPA ▬▬▬🔴⬛⬛🔴▬▬▬▬▬▬7 STAFF ▬▬▬▬▬🔴⬛⬛🔴▬▬▬ LAX 1 BROCK ▬▬▬🔴⬛⬛🔴▬▬▬ T SHOWER ▬▬▬🔴⬛⬛🔴</t>
@@ -539,7 +542,7 @@
     <t>1372023 2466502 4135100 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510033.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510035.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510033.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510035.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖 💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖💖 💖💖💖_Feel Cozy @323-378-0152</t>
@@ -593,7 +596,7 @@
     <t>Downtown, K &amp; DOWN TOWN 🌅⬛🌅⬛🌅—FREE PARKING —🌅⬛🌅⬛🌅, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt;🔴🌴🔴🌴&lt;a&gt; 　BODY CENTRE SPA 　&lt;/a&gt;🔴🌴🔴🌴&lt;p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;  🔴🌴🔴🌴&lt;a&gt; 　BODY CENTRE SPA 　&lt;/a&gt;🔴🌴🔴🌴&lt;p&gt;&lt;/p&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>🔲⬛👛👛👛👛👛👛👛⬛🔲—(` 💗💓💓* ❤❤❤ DOWN &amp; KOREA TOWN AREA ❤❤❤ *💗💓💓.•')—— BEST Service —— 🔲⬛👛👛👛👛👛👛👛👛⬛🔲</t>
@@ -632,7 +635,7 @@
     <t>Downey, Downtown, Long Beach, Los Angeles, Norwalk, 🎯🎯🎯Downey/Huntington Park/South Gate</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt; 🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt;  🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>💥DOWNEY MASSAGE💥▃▃▃▃▃▃▃▃▃▃▃▃▃ ▃▃▃▃▃▃▃▃▃▃▃▃💖Latina&amp;Asian; CLICK HERE💖▃▃▃▃▃▃▃▃▃▃▃▃▃▃ ▃▃▃▃▃▃▃▃▃▃▃▃▃▃</t>
@@ -644,7 +647,7 @@
     <t>4555 W Rosecrans Ave Hawthorne CA 90250, Inglewood / Hawthorne, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt;&lt;b&gt;1. Table Shower Body Massage $50/65min&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;2. Oil Massage Plus self-Shower $45/60min // $30/30min&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;3. Foot Massage(30min)+Body Massage(30min) $45&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;4. Hot Stone (60min)$45&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;5. Foot Massage $35/60min // $15/30min&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;6. Pain Therapy $60/45min&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;7. Four Hands $85/60min&lt;/b&gt;&lt;/p&gt;  &lt;p&gt;&lt;b&gt;&lt;i&gt;Open 7 days, 10.00am-10.00pm&lt;/i&gt;&lt;/b&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve"> &lt;p&gt; 1. Table Shower Body Massage $50/65min &lt;/p&gt;  &lt;p&gt; 2. Oil Massage Plus self-Shower $45/60min // $30/30min &lt;/p&gt;  &lt;p&gt; 3. Foot Massage(30min)+Body Massage(30min) $45 &lt;/p&gt;  &lt;p&gt; 4. Hot Stone (60min)$45 &lt;/p&gt;  &lt;p&gt; 5. Foot Massage $35/60min // $15/30min &lt;/p&gt;  &lt;p&gt; 6. Pain Therapy $60/45min &lt;/p&gt;  &lt;p&gt; 7. Four Hands $85/60min &lt;/p&gt;  &lt;p&gt;  Open 7 days, 10.00am-10.00pm  &lt;/p&gt;</t>
   </si>
   <si>
     <t>♛Free Table Shower★Private room♛Tel:(310-676-9888) (hawthorne)</t>
@@ -668,7 +671,7 @@
     <t>2780 W Sepulveda Blvd #104, Torrance, Los Angeles, Torrance</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;img src="http://i.imgur.com/wkxyq4C.gif"/&gt;   🔴🔴🔴 —— &lt;b&gt;GUARANTEE ‼️ ＣＵＳＴ〇ＭＥＲ 👍 REPEATS&lt;/b&gt; —— 🔴🔴🔴   🌅⬛⬜ &lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;__ TORRANCE SPA&lt;/font&gt;&lt;/a&gt; __🌅⬛⬜</t>
+    <t xml:space="preserve"> &lt;img src="http://i.imgur.com/wkxyq4C.gif"/&gt;   🔴🔴🔴 ——  GUARANTEE ‼️ ＣＵＳＴ〇ＭＥＲ 👍 REPEATS  —— 🔴🔴🔴   🌅⬛⬜ &lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;__ TORRANCE SPA&lt;/font&gt;&lt;/a&gt; __🌅⬛⬜</t>
   </si>
   <si>
     <t>❎❎❎❎❎❎❎ TORRANCE Spa ❎❎❎❎❎❎❎ ❎❎❎❎❎❎❎ ▃▃▃▃▃▃ NEW SPECIAL $50  ▃▃▃▃▃▃▃❎❎❎❎❎❎❎❎❎❎❎❎</t>
@@ -788,7 +791,7 @@
     <t>2138424510</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Hello gentlemen,  I'm Elle. Long golden blonde hair, small waist, elegant legs.  Let me use my feminine charm and soft delicate hands  to melt the tension of everyday life away!  I offer 100% un-rushed mutual-touch massages  I love to create intimacy and am a great conversationalist!    I am spiritually inclined and love to energize &amp; rejuvenate you  through Nuru style body to body mutual touch rubdown. &lt;b&gt;&lt;/b&gt;  I will come to your place of residence or hotel.  I'm available to come to you. Pre-booking is desirable.    I will ensure you leave satisfied♡  My photos are 1,000% REAL and RECENT.    ☑︎Accurate Photos  ☑︎Always Non Rushed  ☑︎Mutual Touch  ☑︎🅼🅞🅳🅴🅻 🅻🅾︎🅾︎🅺🅢    TEXT 213 842 4510 .  Do not say anything inappropriate.    I do not discriminate based on age or race.  please just be polite☺︎</t>
+    <t xml:space="preserve">    Hello gentlemen,  I'm Elle. Long golden blonde hair, small waist, elegant legs.  Let me use my feminine charm and soft delicate hands  to melt the tension of everyday life away!  I offer 100% un-rushed mutual-touch massages  I love to create intimacy and am a great conversationalist!    I am spiritually inclined and love to energize &amp; rejuvenate you  through Nuru style body to body mutual touch rubdown.     I will come to your place of residence or hotel.  I'm available to come to you. Pre-booking is desirable.    I will ensure you leave satisfied♡  My photos are 1,000% REAL and RECENT.    ☑︎Accurate Photos  ☑︎Always Non Rushed  ☑︎Mutual Touch  ☑︎🅼🅞🅳🅴🅻 🅻🅾︎🅾︎🅺🅢    TEXT 213 842 4510 .  Do not say anything inappropriate.    I do not discriminate based on age or race.  please just be polite☺︎</t>
   </si>
   <si>
     <t>Elle ~~ Tantric Blonde Body Slide %100% Independant *YOUR PLACE ONLY*</t>
@@ -818,7 +821,7 @@
     <t>1183579</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="159" src="http://dl8.glitter-graphics.net/pub/191/191418ms9uecajdl.jpg" width="108"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt;&lt;b&gt;MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ]&lt;/b&gt;&lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to &lt;b&gt;LAX&lt;/b&gt; ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="159" src="http://dl8.glitter-graphics.net/pub/191/191418ms9uecajdl.jpg" width="108"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt; &lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ] &lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to  LAX  ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>🔲💨💨💨🔲 ⓦⓞⓝ SPA 👉▬▬🌈💦🐝🐝✅▬▬ CLICK HERE 💨💨►🌈💦🐝►▬▬💨💨 ► Special ▬►🚗▬💨 5 MIN. FROM ✈ LAX</t>
@@ -842,7 +845,7 @@
     <t>2133888005 6264173734 4909069</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;a href="http://www.textspace.net/dynamic_glitter_text/" target="_blank"&gt;&lt;img alt="Dynamic Glitter Text Generator at TextSpace.net" border="0" src="http://imagizer.imageshack.com/img923/588/16kFvT.gif"/&gt;&lt;/a&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/meimassage/gif2.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Back Walking ♣ Hot Stone ♣&lt;/i&gt;&lt;/font&gt; &lt;font color="blue" size="5"&gt;✦ Young Masseuses ☆ Clear Room ☆ Professional Massage ✦&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💝 Body Massage：$45/60Min. 💝 💝 Combo Massage:$45/60Min. 💝 &lt;/i&gt;&lt;/font&gt; &lt;font color="black" size="4"&gt;(30Min. Foot + 40Min. Body)&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ TEL:(213)388-8005&lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-10:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="4"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💯 Take Your Mind Away From All The Stress 💯&lt;/i&gt;&lt;/font&gt; &lt;p&gt; Professional male &lt;b&gt;&lt;/b&gt;masseur skilled &amp;amp;first-class; service out call service the price is reasonable。Tel：6264173734&lt;/p&gt; &lt;font color="blue" size="5"&gt;☛ Location:808 S Western Ave,#201,Los Angeles,CA90005 &lt;/font&gt; &lt;font color="green" size="5"&gt;(A Lot of Parking Space)&lt;/font&gt; &lt;a href="https://cooltext.com" target="_blank"&gt;&lt;img alt="Do Youself a Favour" height="127" src="https://images.cooltext.com/4909069.png" width="425"/&gt;&lt;/a&gt; &lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;a href="http://www.textspace.net/dynamic_glitter_text/" target="_blank"&gt;&lt;img alt="Dynamic Glitter Text Generator at TextSpace.net" border="0" src="http://imagizer.imageshack.com/img923/588/16kFvT.gif"/&gt;&lt;/a&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/meimassage/gif2.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Back Walking ♣ Hot Stone ♣ &lt;/font&gt; &lt;font color="blue" size="5"&gt;✦ Young Masseuses ☆ Clear Room ☆ Professional Massage ✦&lt;/font&gt; &lt;font color="green" size="5"&gt; 💝 Body Massage：$45/60Min. 💝 💝 Combo Massage:$45/60Min. 💝  &lt;/font&gt; &lt;font color="black" size="4"&gt;(30Min. Foot + 40Min. Body)&lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ TEL:(213)388-8005 &lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-10:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="4"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt; 💯 Take Your Mind Away From All The Stress 💯 &lt;/font&gt; &lt;p&gt; Professional male   masseur skilled &amp;amp;first-class; service out call service the price is reasonable。Tel：6264173734&lt;/p&gt; &lt;font color="blue" size="5"&gt;☛ Location:808 S Western Ave,#201,Los Angeles,CA90005 &lt;/font&gt; &lt;font color="green" size="5"&gt;(A Lot of Parking Space)&lt;/font&gt; &lt;a href="https://cooltext.com" target="_blank"&gt;&lt;img alt="Do Youself a Favour" height="127" src="https://images.cooltext.com/4909069.png" width="425"/&gt;&lt;/a&gt; &lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>____🌸_🌹_🌸_Grand Opening ☞ Well Massage II💋 TEL:(213)388-8005_🌸_🌹_🌸</t>
@@ -905,7 +908,7 @@
     <t>1104243970</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤ H2O MASSAGE ❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="10%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;❤ Revive Life 💝☯Bring Your Life Back To Balance☯❤ You Always Win With A Great Massage ❤ Find Your Shelter From The Errors The Game Of Life Throws At You ❤ Find Relief From The Burden Of Stress And Strife ❤ Recover Life With Our Staff Of Youthful Asian Female Therapists❤ Discover Our Rotation of New or Re-visiting Treatment Specialists ❤ She Brings YOU To Your Refuge From Worry And Tension ❤ You Will Find A Youthful Experienced And Caring Lady❤ Prepare Yourself For Pampering With Her Magic Massage Treatment ❤ Our Ladies are Exquisitely Trained in the Arts of Massage and Stress Therapy ❤ Caring Asian Girls Who Never Rush Your Service ❤ She Cares For You From Stress Filled Start to Relaxed Recovery❤ &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;HOURS OF OPERATION&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru Thursday&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; 10:00 AM To 10:00PM &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;u&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/u&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="30%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:18px;line-height:22px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Sensual&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Lovely Caring Ladies&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Clean Comfortable Climate Controlled&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤ H2O MASSAGE ❤❤    &lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="10%"&gt;          &lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;❤ Revive Life 💝☯Bring Your Life Back To Balance☯❤ You Always Win With A Great Massage ❤ Find Your Shelter From The Errors The Game Of Life Throws At You ❤ Find Relief From The Burden Of Stress And Strife ❤ Recover Life With Our Staff Of Youthful Asian Female Therapists❤ Discover Our Rotation of New or Re-visiting Treatment Specialists ❤ She Brings YOU To Your Refuge From Worry And Tension ❤ You Will Find A Youthful Experienced And Caring Lady❤ Prepare Yourself For Pampering With Her Magic Massage Treatment ❤ Our Ladies are Exquisitely Trained in the Arts of Massage and Stress Therapy ❤ Caring Asian Girls Who Never Rush Your Service ❤ She Cares For You From Stress Filled Start to Relaxed Recovery❤ &lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;    HOURS OF OPERATION     &lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;    Open Monday thru Thursday     &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      10:00 AM To 10:00PM      &lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="30%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;     &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;    &lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:18px;line-height:22px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt;      &lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt;      &lt;/p&gt; &lt;ul&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Sensual&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Lovely Caring Ladies&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Clean Comfortable Climate Controlled&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;   &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;  &lt;/p&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
     <t>💞Tension Therapy Massage 💞 Relax Magic 💆 Happy Youthful Asian Girls 🌸Revive Life🌸</t>
@@ -920,7 +923,7 @@
     <t>2212066 4620589 4242479082 8768897 1183549392</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;table cellspacing="10" style="background-image: url('http://dl4.glitter-graphics.net/pub/121/121624cpexq8kxpz.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table cellspacing="15" style="background-image: url('http://dl8.glitter-graphics.net/pub/67/67118p2d0s9j1yr.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table cellspacing="10" style="background-image: url('http://dl4.glitter-graphics.net/pub/121/121624cpexq8kxpz.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table style="background-color:#000000;"&gt;&lt;tr&gt;&lt;td&gt;&lt;center&gt; &lt;img border="0" height="79" src="http://dl6.glitter-graphics.net/pub/2212/2212066z6vryanqwf.gif" width="605"/&gt; &lt;img alt="169 St Massage" height="76" src="http://images.cooltext.com/4620589.png" width="539"&gt; &lt;img src="http://i.imgur.com/fJWbSOy.jpg" title="source: imgur.com"&gt; &lt;p style="color:#ffff00;font-size:28px;line-height:100%;"&gt;&lt;b&gt;Enjoy a Comfortable and Relaxing Time With Our Professional Asian Staff. We Do Deep Tissue,Foot Reflexology Swedish,Hard And Soft Massage&lt;/b&gt;&lt;/p&gt;&lt;p style="color:#ff00ff;font-size:28px;line-height:100%;"&gt;&lt;b&gt;Private Space Clean Quite And Comfortable 7 Days Open, From 10Am To 10Pm&lt;/b&gt;&lt;/p&gt;&lt;p align="center" style="color:#ffff00;font-size:26px;line-height:100%;"&gt;&lt;b&gt;Now Special &lt;/b&gt;&lt;/p&gt; &lt;p align="center" style="color:#ffff00;font-size:26px;line-height:100%;"&gt;&lt;b&gt; $15/30Min; $20/HR Foot Massage $25/30Min; $35/HR Body Massage $30/70Min Combo (20 Min Head/ Shoulder/ Hand +20 Min Back +30Min Foot) Body &amp;amp; Foot Combination $45/90Min(60Min Body +30Min Foot) &lt;/b&gt;&lt;/p&gt; &lt;p style="color:#ff00ff;font-size:30px;line-height:100%;"&gt;&lt;b&gt;★★Call:424-247-9082★★ Location:16825 Hawthorne Blvd, Lawndale,Ca 90260 &lt;a href="https://www.google.com./maps/place/16825+Hawthorne+Blvd,+Lawndale,+CA+90260,+USA/@33.8768897,-118.3549392,15z/data=!4m2!3m1!1s0x80c2b45613bb4fd7:0x38380af2836c73a8?hl=en" target="_blank"&gt;——★—— [ GOOGLE MAP ] ——★——&lt;/a&gt; &lt;img border="0" height="60" src="http://dl9.glitter-graphics.net/pub/152/152179h4qroi8q2b.gif" width="500"/&gt; Appointment Or Walk-In!!&lt;/b&gt;&lt;/p&gt; &lt;p align="center" style="font-size:15px;line-height:100%;"&gt;&lt;b&gt;BC 广告设计公司：六二六-二二六-六二九八&lt;/b&gt;&lt;/p&gt; &lt;/img&gt;&lt;/img&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+    <t xml:space="preserve"> &lt;table cellspacing="10" style="background-image: url('http://dl4.glitter-graphics.net/pub/121/121624cpexq8kxpz.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table cellspacing="15" style="background-image: url('http://dl8.glitter-graphics.net/pub/67/67118p2d0s9j1yr.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table cellspacing="10" style="background-image: url('http://dl4.glitter-graphics.net/pub/121/121624cpexq8kxpz.gif'); "&gt; &lt;tr&gt;&lt;td&gt;&lt;table style="background-color:#000000;"&gt;&lt;tr&gt;&lt;td&gt;&lt;center&gt; &lt;img border="0" height="79" src="http://dl6.glitter-graphics.net/pub/2212/2212066z6vryanqwf.gif" width="605"/&gt; &lt;img alt="169 St Massage" height="76" src="http://images.cooltext.com/4620589.png" width="539"&gt; &lt;img src="http://i.imgur.com/fJWbSOy.jpg" title="source: imgur.com"&gt; &lt;p style="color:#ffff00;font-size:28px;line-height:100%;"&gt; Enjoy a Comfortable and Relaxing Time With Our Professional Asian Staff. We Do Deep Tissue,Foot Reflexology Swedish,Hard And Soft Massage &lt;/p&gt;&lt;p style="color:#ff00ff;font-size:28px;line-height:100%;"&gt; Private Space Clean Quite And Comfortable 7 Days Open, From 10Am To 10Pm &lt;/p&gt;&lt;p align="center" style="color:#ffff00;font-size:26px;line-height:100%;"&gt; Now Special  &lt;/p&gt; &lt;p align="center" style="color:#ffff00;font-size:26px;line-height:100%;"&gt;  $15/30Min; $20/HR Foot Massage $25/30Min; $35/HR Body Massage $30/70Min Combo (20 Min Head/ Shoulder/ Hand +20 Min Back +30Min Foot) Body &amp;amp; Foot Combination $45/90Min(60Min Body +30Min Foot)  &lt;/p&gt; &lt;p style="color:#ff00ff;font-size:30px;line-height:100%;"&gt; ★★Call:424-247-9082★★ Location:16825 Hawthorne Blvd, Lawndale,Ca 90260 &lt;a href="https://www.google.com./maps/place/16825+Hawthorne+Blvd,+Lawndale,+CA+90260,+USA/@33.8768897,-118.3549392,15z/data=!4m2!3m1!1s0x80c2b45613bb4fd7:0x38380af2836c73a8?hl=en" target="_blank"&gt;——★—— [ GOOGLE MAP ] ——★——&lt;/a&gt; &lt;img border="0" height="60" src="http://dl9.glitter-graphics.net/pub/152/152179h4qroi8q2b.gif" width="500"/&gt; Appointment Or Walk-In!! &lt;/p&gt; &lt;p align="center" style="font-size:15px;line-height:100%;"&gt; BC 广告设计公司：六二六-二二六-六二九八 &lt;/p&gt; &lt;/img&gt;&lt;/img&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
     <t>🎀🔥🎀🔥 GRAND OPENING🎀🔥🎀 SPECIAL PRICE🎀🔥🎀 RELAX &amp; ENJOY 🎀🔥🎀🔥☎CALL: 424-247-9082☎ 🎀🔥🎀🔥🎀🔥🎀🔥🎀🔥</t>
@@ -935,10 +938,10 @@
     <t>4243749751</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;&lt;/b&gt;    &lt;u&gt;Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet &lt;/u&gt;  &lt;b&gt;&lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;&lt;/b&gt;    &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~ &lt;u&gt;100% TRULY Amazing EXPERIENCE!~&lt;/u&gt;    &lt;b&gt;NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS&lt;/b&gt;    &lt;b&gt;&lt;u&gt;Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA&lt;/u&gt; &lt;a&gt;Phone: 424-374-9751 &lt;/a&gt; &lt;/b&gt;  &lt;b&gt;&lt;i&gt;OpenMind &amp;amp; MORE&lt;/i&gt;&lt;/b&gt;   </t>
-  </si>
-  <si>
-    <t>230</t>
+    <t xml:space="preserve">  &lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;      Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet     &lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;     &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~  100% TRULY Amazing EXPERIENCE!~      NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS       Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA  &lt;a&gt;Phone: 424-374-9751 &lt;/a&gt;      OpenMind &amp;amp; MORE     </t>
+  </si>
+  <si>
+    <t>229</t>
   </si>
   <si>
     <t>❌⭕❌⭕❌⭕ 3 COLLEGE Babes ❌⭕❌⭕❌⭕ Open Till Late ❌⭕❌⭕❌⭕ SEXY FUN ❌⭕❌⭕❌⭕ LATINA Mixed Asian ❌⭕❌⭕❌⭕ - 21</t>
@@ -1001,7 +1004,7 @@
     <t>Los Angeles, Westside, 🔥 Long Beach/Torrance/Gardena/Carson</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt;&lt;b&gt;🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Sweet and caring Asian &amp;amp; Latina STAFF&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Excellent touch full body massage !&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Life is too short and get a wonderful massage !&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Relax, unwind, all tension and anxiety&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;High Quality VIP Excellent Service&lt;/i&gt; &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎— &lt;b&gt;310 - 272 - 0749&lt;/b&gt;&lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt; 🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕  &lt;a&gt;—————— Sweet and caring Asian &amp;amp; Latina STAFF &lt;/a&gt;  Excellent touch full body massage !  &lt;a&gt;—————— Life is too short and get a wonderful massage ! &lt;/a&gt;  Relax, unwind, all tension and anxiety  &lt;a&gt;—————— High Quality VIP Excellent Service  &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎—  310 - 272 - 0749 &lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>▐ ☼▐ 🆕▐ ☼▐ ▬▐ ☼▐▬🆕🆕▬▶* NEW Management &amp; NEW STAFF - [ All Updated ]*▬ ☆🆕🆕☆▬ Feel Better Today</t>
@@ -1016,7 +1019,7 @@
     <t>3238510322 1183498 1184117</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;font color="#FF00FF" size="5"&gt; &lt;center&gt; &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;font color="#FF00FF" size="5"&gt;🔥🔥 4 NEW STAFFS ARE HERE FOR YOU! 🔥🔥 &lt;/font&gt;&lt;a&gt;&lt;font color="teal" size="5"&gt; &lt;/font&gt;&lt;font color="navy" size="5"&gt;&lt;/font&gt; &lt;b&gt;&lt;font color="navy" size="5"&gt;🔲⬛️🔲MOMO SPA 🔲⬛️🔲 =♥=&lt;font color="red" size="5"&gt; BEST SERVICE GUARANTEED =♥=&lt;font color="navy" size="4"&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/a&gt; ✅ NEVER RUSHED ✅ POPULAR STAFF ✅ CHOOSE YOUR WAY &lt;/b&gt;&lt;/font&gt;&lt;hr/&gt; &lt;font color="olive" size="4"&gt;🔷 5 Star Level of Pampering! Perfect From Beginning to End 🔷 Experienced pretty INTERNATIONAL therapeutic bodywork ! 🌟 &lt;a&gt;OPEN (10AM TO 10PM) 🌟&lt;/a&gt;&lt;/font&gt; &lt;hr/&gt;&lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;☎ TEL :&lt;b&gt; 323-851-0322 ☎&lt;/b&gt;&lt;/font&gt;&lt;/a&gt;&lt;hr/&gt; &lt;a href="https://www.google.com/maps?q=7551+1%2F2+Santa+Monica+Bl+West+Hollywood+CA+90046&amp;amp;hl=en&amp;amp;ll=34.090696,-118.349833&amp;amp;spn=0.023457,0.045447&amp;amp;sll=34.020479,-118.411732&amp;amp;sspn=0.726189,0.85968&amp;amp;hnear=7551+1%2F2+Santa+Monica+Blvd,+Los+Angeles,+California+90025&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; &lt;font color="teal" size="5"&gt;🔷 7551 1/2 Santa Monica Bl West Hollywood CA 90046 &lt;font color="#FF00FF" size="6"&gt;🔲🌟 MAP 4 CLICK HERE ( FREE PARKING) 🌟🔲&lt;/font&gt;&lt;/font&gt;&lt;/a&gt;&lt;/center&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;font color="#FF00FF" size="5"&gt; &lt;center&gt; &lt;font color="navy" size="5"&gt; &lt;font color="#FF00FF" size="5"&gt;🔥🔥 4 NEW STAFFS ARE HERE FOR YOU! 🔥🔥 &lt;/font&gt;&lt;a&gt;&lt;font color="teal" size="5"&gt; &lt;/font&gt;&lt;font color="navy" size="5"&gt;&lt;/font&gt;  &lt;font color="navy" size="5"&gt;🔲⬛️🔲MOMO SPA 🔲⬛️🔲 =♥=&lt;font color="red" size="5"&gt; BEST SERVICE GUARANTEED =♥=&lt;font color="navy" size="4"&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/a&gt; ✅ NEVER RUSHED ✅ POPULAR STAFF ✅ CHOOSE YOUR WAY  &lt;/font&gt;&lt;hr/&gt; &lt;font color="olive" size="4"&gt;🔷 5 Star Level of Pampering! Perfect From Beginning to End 🔷 Experienced pretty INTERNATIONAL therapeutic bodywork ! 🌟 &lt;a&gt;OPEN (10AM TO 10PM) 🌟&lt;/a&gt;&lt;/font&gt; &lt;hr/&gt;&lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;☎ TEL :  323-851-0322 ☎ &lt;/font&gt;&lt;/a&gt;&lt;hr/&gt; &lt;a href="https://www.google.com/maps?q=7551+1%2F2+Santa+Monica+Bl+West+Hollywood+CA+90046&amp;amp;hl=en&amp;amp;ll=34.090696,-118.349833&amp;amp;spn=0.023457,0.045447&amp;amp;sll=34.020479,-118.411732&amp;amp;sspn=0.726189,0.85968&amp;amp;hnear=7551+1%2F2+Santa+Monica+Blvd,+Los+Angeles,+California+90025&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; &lt;font color="teal" size="5"&gt;🔷 7551 1/2 Santa Monica Bl West Hollywood CA 90046 &lt;font color="#FF00FF" size="6"&gt;🔲🌟 MAP 4 CLICK HERE ( FREE PARKING) 🌟🔲&lt;/font&gt;&lt;/font&gt;&lt;/a&gt;&lt;/center&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>✅✅✅📳📳📳📳📳📳📳📳📳✅✅✅ ▃▃MOMO ▃▃⚫🔴 ULTIMATE EXPERIENCE▃▃⚫🔴  FREE PARKING  ▃▃⚫🔴✅✅✅📳📳📳📳📳📳📳📳📳✅✅✅</t>
@@ -1034,7 +1037,7 @@
     <t>3104705818</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;u&gt;&lt;b&gt;Tel:(310)470-5818&lt;/b&gt;&lt;/u&gt;    Open 7 Days a Week  11:00am - 10:00pm     &lt;b&gt;Full Body Massage $35/HR Foot Massage Combo $25/HR&lt;/b&gt;     &lt;i&gt;&lt;u&gt;&lt;b&gt;10667 west Pico Blvd. Los Angeles,CA 90064&lt;/b&gt;&lt;/u&gt;&lt;/i&gt; </t>
+    <t xml:space="preserve">   Tel:(310)470-5818      Open 7 Days a Week  11:00am - 10:00pm      Full Body Massage $35/HR Foot Massage Combo $25/HR         10667 west Pico Blvd. Los Angeles,CA 90064    </t>
   </si>
   <si>
     <t>★Professional Massage★☆total relax☆</t>
@@ -1100,7 +1103,7 @@
     <t>Downtown, Los Angeles, ☑️Whittier/Santa Fe Spring/ Pico Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt;💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt; 💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>❎ACE SPA❎❎❎❎❎❎❎❎❎❎❎❎❎░░░░░░  BEAUTIFUL YOUNG LATINA &amp; ASIAN☎️562-479-9835☎️ ░░░░░❎❎❎❎❎❎❎❎❎❎❎❎</t>
@@ -1130,10 +1133,10 @@
     <t>3233690532</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hello, I am Lili, a TOP rated, Jet-Set dancer. I'm fun, loving, outgoing and spontaneous. Are you tired of the drama? Do you just want to meet a girl who can give all to you? If you like what you see, then you will love what you get. I am everything that you have ever dream of, sexy, beautiful, with highly addicting bedroom skills. Let me introduce you to something you have always wanted and fantasized about!!&lt;p&gt; Call &lt;a href="tel:3233690532" target="_blank"&gt;323-369-0532&lt;/a&gt; &lt;/p&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>207</t>
+    <t xml:space="preserve">  Hello, I am Lili, a TOP rated, Jet-Set dancer. I'm fun, loving, outgoing and spontaneous. Are you tired of the drama? Do you just want to meet a girl who can give all to you? If you like what you see, then you will love what you get. I am everything that you have ever dream of, sexy, beautiful, with highly addicting bedroom skills. Let me introduce you to something you have always wanted and fantasized about!!&lt;p&gt; Call &lt;a href="tel:3233690532" target="_blank"&gt;323-369-0532&lt;/a&gt; &lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
   <si>
     <t>☰▊☰▊☰▊☰▊☰▊☰  323-369-0532 🌳🌳🌳🌳 Sexy Asian Girl 🌳🌳🌳🌳🔲🌋 ☰▊☰▊☰▊☰▊☰▊☰ HOT STEAMY FUN PAMPERED</t>
@@ -1148,7 +1151,7 @@
     <t>3234631977</t>
   </si>
   <si>
-    <t>Jet Lag a must!!! &lt;u&gt;&lt;/u&gt; I am a professional CMT with 6 1/2 years experience and the magic touch to rub you the right way!  Been turned to Jelly lately? I specialize in many different legit modalities.. Lomi LOmi/swedish mixture with a little thai on you lower back.Lomi Lomi on hamstrings/Reflexology on feet/ deep tiisue/trigger point and sports massage if needed and acupressure.  Outcalls to Hollywood,Burbank,Santa Monica,Los Angeles,LAX,B,H.  My home has a comfortable massage room with central air/heat,windows/music/candles/peaceful  Call/text Carol 323-463-1977 Outcalls please schedule before 10pm/Incalls can sometimes take late. If possible prefer appt. though Can work anytime with scheduled appt.  Text your time availability and where you are staying; or if you want to come to me and We will work on making it happen, Thanks Carol text/call 323--463--1977... &lt;b&gt;&lt;/b&gt; &lt;u&gt;&lt;/u&gt; incall $95 60 min $135 90 min Outcall has traveling time, and parking fee.I got your back!!!</t>
+    <t>Jet Lag a must!!!    I am a professional CMT with 6 1/2 years experience and the magic touch to rub you the right way!  Been turned to Jelly lately? I specialize in many different legit modalities.. Lomi LOmi/swedish mixture with a little thai on you lower back.Lomi Lomi on hamstrings/Reflexology on feet/ deep tiisue/trigger point and sports massage if needed and acupressure.  Outcalls to Hollywood,Burbank,Santa Monica,Los Angeles,LAX,B,H.  My home has a comfortable massage room with central air/heat,windows/music/candles/peaceful  Call/text Carol 323-463-1977 Outcalls please schedule before 10pm/Incalls can sometimes take late. If possible prefer appt. though Can work anytime with scheduled appt.  Text your time availability and where you are staying; or if you want to come to me and We will work on making it happen, Thanks Carol text/call 323--463--1977...       incall $95 60 min $135 90 min Outcall has traveling time, and parking fee.I got your back!!!</t>
   </si>
   <si>
     <t>451</t>
@@ -1187,6 +1190,9 @@
     <t>Hello    I love to spend quality time with clean cut professional generous men I always ⬆️ To please 💦❤ I'm sexy  Your browser does not support the videos.    i'm clean, and well spoken and expect the same of you. I do not tolerate vulgar language nor disrespect i will respectfully as you to excuse    yourself if necessary.. 🍎🍒🍎🍒I have a safe place,call me if u ready 🍎🍒🍎🍒 OuTCALL 🍓    Call me baby  714-321-3961  Fei fei NO BLACK NO BLOCK THANKS!!1 out call 👌👏👍</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>New — young 🔴🌺Korean —  pretty ——◆ Hot  ——— special —🌹——Girl  -714-321-3961</t>
   </si>
   <si>
@@ -1214,7 +1220,7 @@
     <t>2133826699</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; Get a wonderful happy massage!! [. ♥100% Totally body relax ♥100%SUPER Comfortable ♥]! You Will Not Be Dissapointed!!!...young skillful girl here, give you the best massage. Totally Relax your whole body and your mind. Don27;t wait......Come!!! 💥💥💥 滿足( man zu)spa💥💥💥 💖 941. S Vermont Ave CA 90006💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt; &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    Get a wonderful happy massage!! [. ♥100% Totally body relax ♥100%SUPER Comfortable ♥]! You Will Not Be Dissapointed!!!...young skillful girl here, give you the best massage. Totally Relax your whole body and your mind. Don27;t wait......Come!!! 💥💥💥 滿足( man zu)spa💥💥💥 💖 941. S Vermont Ave CA 90006💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt;   </t>
   </si>
   <si>
     <t>1048</t>
@@ -1256,7 +1262,7 @@
     <t>2700331 1090635 1184783 1182964 1367148 2453655 4091430</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="51" src="http://dl.glitter-graphics.net/pub/2700/2700331ee7v91qahx.gif" width="446"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/a.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/a.gif"/&gt;&lt;/a&gt; &lt;font color="red" face="Monotype Corsiva" size="6"&gt; The Ultimate Satisfaction &amp;amp; Relaxation &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="161" src="http://dl5.glitter-graphics.net/pub/1090/1090635tkq4bey0eo.gif" width="192"/&gt;&lt;/a&gt; &lt;font color="green" face="Palatino Linotype"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;a href="https://maps.google.com/maps?q=1843+Lincoln+Blvd,+Santa+Monica,+CA+90404&amp;amp;hl=ko&amp;amp;ll=34.014801,-118.478322&amp;amp;spn=0.010138,0.023711&amp;amp;sll=33.790757,-118.29649&amp;amp;sspn=0.010165,0.023711&amp;amp;hnear=1843+Lincoln+Blvd,+Santa+Monica,+California+90404&amp;amp;t=m&amp;amp;z=16" target="_blank"&gt;&lt;b&gt;1843 Lincoln Blvd, Santa Monica, CA 90404&lt;/b&gt;&lt;/a&gt; &lt;font color="purple" size="4"&gt;[ West LA - Santa Monica ] &lt;font color="blue" size="5"&gt;10 Fwy Exit Linclon Bl [S] 0.2 mi &lt;font color="red" size="6"&gt;829; 310 - 664 - 9300 &lt;font color="olive" size="4"&gt;Open 7 Days : 10:00AM - 10:00PM &lt;font color="red"&gt;* Easy Inside Parking &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;div style="visibility:visible;width:460px;margin:auto;"&gt; &lt;/div&gt; &lt;img alt="Image Hosting by PictureTrail.com" border="0" src="http://pic20.picturetrail.com/VOL1383/13671483/24536552/409143081.jpg"/&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="51" src="http://dl.glitter-graphics.net/pub/2700/2700331ee7v91qahx.gif" width="446"/&gt;&lt;/a&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/a.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/love/a.gif"/&gt;&lt;/a&gt; &lt;font color="red" face="Monotype Corsiva" size="6"&gt; The Ultimate Satisfaction &amp;amp; Relaxation &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="161" src="http://dl5.glitter-graphics.net/pub/1090/1090635tkq4bey0eo.gif" width="192"/&gt;&lt;/a&gt; &lt;font color="green" face="Palatino Linotype"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt; &lt;a href="https://maps.google.com/maps?q=1843+Lincoln+Blvd,+Santa+Monica,+CA+90404&amp;amp;hl=ko&amp;amp;ll=34.014801,-118.478322&amp;amp;spn=0.010138,0.023711&amp;amp;sll=33.790757,-118.29649&amp;amp;sspn=0.010165,0.023711&amp;amp;hnear=1843+Lincoln+Blvd,+Santa+Monica,+California+90404&amp;amp;t=m&amp;amp;z=16" target="_blank"&gt; 1843 Lincoln Blvd, Santa Monica, CA 90404 &lt;/a&gt; &lt;font color="purple" size="4"&gt;[ West LA - Santa Monica ] &lt;font color="blue" size="5"&gt;10 Fwy Exit Linclon Bl [S] 0.2 mi &lt;font color="red" size="6"&gt;829; 310 - 664 - 9300 &lt;font color="olive" size="4"&gt;Open 7 Days : 10:00AM - 10:00PM &lt;font color="red"&gt;* Easy Inside Parking &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;div style="visibility:visible;width:460px;margin:auto;"&gt; &lt;/div&gt; &lt;img alt="Image Hosting by PictureTrail.com" border="0" src="http://pic20.picturetrail.com/VOL1383/13671483/24536552/409143081.jpg"/&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>🍎🍎🍎 🌴🍎🍎🍎 ▬▬✦▬▬  🍎 🌴 🍎 ▬▬🍎🍎 310-664-9300 🍎🍎 ▬▬🍎 A-1 SPA ☆▬▬▬▬🍎 310-664-9300</t>
@@ -1364,7 +1370,7 @@
     <t>8189858999</t>
   </si>
   <si>
-    <t xml:space="preserve">Good…Giving us a call &lt;i&gt;8189858999&lt;/i&gt; even Better!  Open:9:30AM--10:00PM &lt;b&gt;4930 lankershim blvd,n &lt;a href="http://hollywood.ca" target="_blank"&gt;hollywood.ca&lt;/a&gt; 91601.&lt;/b&gt; </t>
+    <t xml:space="preserve">Good…Giving us a call  8189858999  even Better!  Open:9:30AM--10:00PM  4930 lankershim blvd,n &lt;a href="http://hollywood.ca" target="_blank"&gt;hollywood.ca&lt;/a&gt; 91601.  </t>
   </si>
   <si>
     <t>1107</t>
@@ -1397,13 +1403,13 @@
     <t>130313173</t>
   </si>
   <si>
-    <t>Los Angeles, Marina,Lax,Torrance,Sm,Southbay,La, Santa Monica, Westside</t>
+    <t>Los Angeles, Marina,Lax,Venice,Sm,Southbay,LA,Beverly, Santa Monica, Westside</t>
   </si>
   <si>
     <t>3235068486</t>
   </si>
   <si>
-    <t>Guaranteed worth your while! Very Classy, Very Pretty,COCO DELIGHT,5'6,Athletic Curves,small waist, Sexy toned Ass, 32DD and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy CERTIFIED Afro-Cubana. DISCREET SEDUCTRESS💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋more on my website)! I know EXACTLY how to give you what you need!    Incall 120hh 160h 240-90mins    Outcall 140hh 220h    Upscale only/GENTLEMEN 35+  ☎CALL Vanessa🌴 323-506-8486 ⭐️100% Real Certified Therapists 🚨Avail 24hrs 7 days a week🚨 ⭐️$300 Vip Preview package: Includes Body2Body Combo with Hot Shower Scrub Down/upgrades available with this massage only⭐️</t>
+    <t>Guaranteed worth your while! Very Classy, Very Pretty,COCO DELIGHT,5'6,Athletic Curves,small waist, Sexy toned Ass, 32DD and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy CERTIFIED Afro-Cubana. DISCREET SEDUCTRESS💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋more on my website)! I know EXACTLY how to give you what you need!    Incall 160h 280-90mins    Outcall 140hh 200h    Upscale only/GENTLEMEN 35+  ☎TEXT Vanessa For Appointment🌴 323-506-8486 🚨Avail 24hrs 7 days a week🚨 ⭐️$300 Vip Preview package: Includes Body2Body Combo with Hot Shower Scrub Down/upgrades available with this package only⭐️</t>
   </si>
   <si>
     <t>32DD🔥❤🚀💋🎥🍒👅👀💣🎢THIS IS NOT A BODYRUB, This Is Erotic BODYWORK🔞💋🍒🍓 Feel the difference</t>
@@ -2113,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2131,16 +2137,16 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -2151,16 +2157,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -2169,16 +2175,16 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" t="n">
         <v>1312</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -2195,10 +2201,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -2207,16 +2213,16 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="n">
         <v>2015</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -2227,16 +2233,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -2245,16 +2251,16 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -2271,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -2283,16 +2289,16 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -2309,10 +2315,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -2321,16 +2327,16 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -2347,10 +2353,10 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2359,16 +2365,16 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -2385,10 +2391,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2397,16 +2403,16 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J15" t="n">
         <v>1530</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -2423,10 +2429,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2436,13 +2442,13 @@
       </c>
       <c r="H16" t="s"/>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
         <v>2405</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
@@ -2459,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2471,16 +2477,16 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J17" t="n">
         <v>2405</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2497,10 +2503,10 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -2509,16 +2515,16 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
         <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2535,28 +2541,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2567,13 +2573,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -2588,7 +2594,7 @@
         <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J20" t="n">
         <v>1314</v>
@@ -2605,16 +2611,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -2623,16 +2629,16 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J21" t="n">
         <v>1323</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -2649,10 +2655,10 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2662,13 +2668,13 @@
       </c>
       <c r="H22" t="s"/>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J22" t="n">
         <v>2405</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2685,10 +2691,10 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -2697,16 +2703,16 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
         <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2717,13 +2723,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -2738,13 +2744,13 @@
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J24" t="n">
         <v>2407</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2761,28 +2767,28 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J25" t="n">
         <v>1315</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2793,32 +2799,32 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s"/>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J26" t="n">
         <v>2446</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -2835,10 +2841,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -2848,13 +2854,13 @@
       </c>
       <c r="H27" t="s"/>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2871,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -2883,16 +2889,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -2903,16 +2909,16 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2921,16 +2927,16 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J29" t="n">
         <v>1308</v>
       </c>
       <c r="K29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -2947,10 +2953,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -2959,16 +2965,16 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J30" t="n">
         <v>1412</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
@@ -2985,10 +2991,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2997,16 +3003,16 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J31" t="s">
         <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -3023,10 +3029,10 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3035,16 +3041,16 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J32" t="n">
         <v>2404</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3061,10 +3067,10 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3073,16 +3079,16 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s">
         <v>23</v>
@@ -3099,10 +3105,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -3112,13 +3118,13 @@
       </c>
       <c r="H34" t="s"/>
       <c r="I34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J34" t="n">
         <v>1302</v>
       </c>
       <c r="K34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3129,16 +3135,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3148,13 +3154,13 @@
       </c>
       <c r="H35" t="s"/>
       <c r="I35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J35" t="n">
         <v>1319</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3171,10 +3177,10 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -3184,13 +3190,13 @@
       </c>
       <c r="H36" t="s"/>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J36" t="n">
         <v>2405</v>
       </c>
       <c r="K36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3207,10 +3213,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3220,13 +3226,13 @@
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3243,28 +3249,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J38" t="n">
         <v>1412</v>
       </c>
       <c r="K38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3281,10 +3287,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3294,13 +3300,13 @@
       </c>
       <c r="H39" t="s"/>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
         <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3317,10 +3323,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3330,13 +3336,13 @@
       </c>
       <c r="H40" t="s"/>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J40" t="n">
         <v>1312</v>
       </c>
       <c r="K40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3353,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3366,13 +3372,13 @@
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J41" t="n">
         <v>1502</v>
       </c>
       <c r="K41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3389,10 +3395,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3402,13 +3408,13 @@
       </c>
       <c r="H42" t="s"/>
       <c r="I42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
         <v>50</v>
       </c>
       <c r="K42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3425,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
@@ -3440,7 +3446,7 @@
         <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J43" t="n">
         <v>1911</v>
@@ -3463,26 +3469,26 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H44" t="s"/>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J44" t="n">
         <v>1932</v>
       </c>
       <c r="K44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -3499,10 +3505,10 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3511,16 +3517,16 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J45" t="n">
         <v>1730</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -3537,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -3549,16 +3555,16 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -3575,10 +3581,10 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3587,16 +3593,16 @@
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J47" t="n">
         <v>2400</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3613,10 +3619,10 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3626,13 +3632,13 @@
       </c>
       <c r="H48" t="s"/>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3649,10 +3655,10 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
         <v>27</v>
@@ -3662,13 +3668,13 @@
       </c>
       <c r="H49" t="s"/>
       <c r="I49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J49" t="n">
         <v>2008</v>
       </c>
       <c r="K49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -3679,16 +3685,16 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3698,13 +3704,13 @@
       </c>
       <c r="H50" t="s"/>
       <c r="I50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J50" t="n">
         <v>1451</v>
       </c>
       <c r="K50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -3715,16 +3721,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3733,16 +3739,16 @@
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3759,10 +3765,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3771,16 +3777,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J52" t="n">
         <v>1355</v>
       </c>
       <c r="K52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3797,10 +3803,10 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3809,16 +3815,16 @@
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3835,10 +3841,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3847,16 +3853,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J54" t="s">
         <v>50</v>
       </c>
       <c r="K54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -3873,10 +3879,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -3886,13 +3892,13 @@
       </c>
       <c r="H55" t="s"/>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J55" t="n">
         <v>1302</v>
       </c>
       <c r="K55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -3909,10 +3915,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -3921,16 +3927,16 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J56" t="n">
         <v>1609</v>
       </c>
       <c r="K56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -3941,32 +3947,32 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H57" t="s"/>
       <c r="I57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -3983,10 +3989,10 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -3995,16 +4001,16 @@
         <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J58" t="n">
         <v>2405</v>
       </c>
       <c r="K58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4021,10 +4027,10 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4033,16 +4039,16 @@
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J59" t="n">
         <v>1551</v>
       </c>
       <c r="K59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4053,16 +4059,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4071,16 +4077,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J60" t="n">
         <v>1412</v>
       </c>
       <c r="K60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4097,10 +4103,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -4109,16 +4115,16 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J61" t="n">
         <v>1412</v>
       </c>
       <c r="K61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4129,16 +4135,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4147,16 +4153,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4173,10 +4179,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4185,16 +4191,16 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4205,16 +4211,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4223,16 +4229,16 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4243,16 +4249,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4261,16 +4267,16 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J65" t="n">
         <v>2402</v>
       </c>
       <c r="K65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4287,10 +4293,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4300,13 +4306,13 @@
       </c>
       <c r="H66" t="s"/>
       <c r="I66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J66" t="n">
         <v>1413</v>
       </c>
       <c r="K66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4323,10 +4329,10 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4335,16 +4341,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J67" t="n">
         <v>1412</v>
       </c>
       <c r="K67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4355,34 +4361,34 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J68" t="n">
         <v>1308</v>
       </c>
       <c r="K68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -4399,10 +4405,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4411,16 +4417,16 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K69" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L69" t="s">
         <v>23</v>
@@ -4431,16 +4437,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4449,16 +4455,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -4469,34 +4475,34 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J71" t="n">
         <v>2457</v>
       </c>
       <c r="K71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -4513,10 +4519,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4526,13 +4532,13 @@
       </c>
       <c r="H72" t="s"/>
       <c r="I72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
@@ -4549,10 +4555,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4562,13 +4568,13 @@
       </c>
       <c r="H73" t="s"/>
       <c r="I73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J73" t="s">
         <v>35</v>
       </c>
       <c r="K73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
@@ -4585,10 +4591,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4597,16 +4603,16 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -4617,16 +4623,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -4635,16 +4641,16 @@
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J75" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K75" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L75" t="s">
         <v>23</v>
@@ -4655,16 +4661,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -4673,16 +4679,16 @@
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K76" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -4693,16 +4699,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -4711,16 +4717,16 @@
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I77" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J77" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s">
         <v>23</v>
@@ -4731,16 +4737,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E78" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4749,16 +4755,16 @@
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I78" t="s">
-        <v>389</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2353</v>
+        <v>390</v>
+      </c>
+      <c r="J78" t="s">
+        <v>391</v>
       </c>
       <c r="K78" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
@@ -4775,10 +4781,10 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
@@ -4787,16 +4793,16 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I79" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J79" t="n">
         <v>1904</v>
       </c>
       <c r="K79" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -4807,16 +4813,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E80" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -4825,16 +4831,16 @@
         <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I80" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J80" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K80" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -4851,10 +4857,10 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4863,16 +4869,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I81" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J81" t="n">
         <v>2408</v>
       </c>
       <c r="K81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -4889,10 +4895,10 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E82" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
@@ -4901,16 +4907,16 @@
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I82" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J82" t="n">
         <v>1840</v>
       </c>
       <c r="K82" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -4927,10 +4933,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4940,13 +4946,13 @@
       </c>
       <c r="H83" t="s"/>
       <c r="I83" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J83" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K83" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
@@ -4963,7 +4969,7 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
@@ -4975,16 +4981,16 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I84" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J84" t="s">
         <v>50</v>
       </c>
       <c r="K84" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5001,10 +5007,10 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -5013,16 +5019,16 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I85" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J85" t="n">
         <v>2405</v>
       </c>
       <c r="K85" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
@@ -5039,10 +5045,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E86" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5052,13 +5058,13 @@
       </c>
       <c r="H86" t="s"/>
       <c r="I86" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
@@ -5075,10 +5081,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E87" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5087,16 +5093,16 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I87" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J87" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K87" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5113,10 +5119,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E88" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -5129,7 +5135,7 @@
         <v>49</v>
       </c>
       <c r="J88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K88" t="s">
         <v>51</v>
@@ -5149,10 +5155,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E89" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5161,16 +5167,16 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I89" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J89" t="n">
         <v>1527</v>
       </c>
       <c r="K89" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5187,10 +5193,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5199,16 +5205,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I90" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J90" t="n">
         <v>1511</v>
       </c>
       <c r="K90" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5225,10 +5231,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E91" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -5237,16 +5243,16 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I91" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J91" t="n">
         <v>1815</v>
       </c>
       <c r="K91" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5257,13 +5263,13 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -5278,10 +5284,10 @@
         <v>28</v>
       </c>
       <c r="I92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K92" t="s">
         <v>30</v>
@@ -5295,16 +5301,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -5313,16 +5319,16 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I93" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J93" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K93" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
@@ -5339,10 +5345,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5352,13 +5358,13 @@
       </c>
       <c r="H94" t="s"/>
       <c r="I94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J94" t="n">
         <v>1412</v>
       </c>
       <c r="K94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5369,16 +5375,16 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E95" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5387,16 +5393,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I95" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J95" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K95" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
@@ -5413,10 +5419,10 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E96" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F96" t="s">
         <v>27</v>
@@ -5425,16 +5431,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I96" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J96" t="n">
         <v>1916</v>
       </c>
       <c r="K96" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5451,10 +5457,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E97" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5463,16 +5469,16 @@
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I97" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J97" t="n">
         <v>1326</v>
       </c>
       <c r="K97" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
@@ -5489,10 +5495,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5501,16 +5507,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I98" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J98" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K98" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
@@ -5527,10 +5533,10 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E99" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -5539,16 +5545,16 @@
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I99" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J99" t="n">
         <v>1412</v>
       </c>
       <c r="K99" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L99" t="s">
         <v>23</v>
@@ -5565,10 +5571,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E100" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -5577,16 +5583,16 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I100" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J100" t="n">
         <v>1412</v>
       </c>
       <c r="K100" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L100" t="s">
         <v>23</v>
@@ -5603,28 +5609,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E101" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H101" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I101" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J101" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K101" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
